--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_eléctricos.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_eléctricos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104E4B71-2A0C-4D88-9F06-A58EC380420F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB55C2-4B71-4869-82C2-2BC6115CE5DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -42,12 +42,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,9 +131,6 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-  </si>
-  <si>
     <t>Etiqueta de EE BAU</t>
   </si>
   <si>
@@ -210,6 +201,9 @@
   </si>
   <si>
     <t>Número de calentadores instantáneo y acumulación con etiqueta E. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos. Evite borrar las etiquetas que se muestran por defecto desplegadas.</t>
   </si>
 </sst>
 </file>
@@ -845,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:T312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,58 +872,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T1" s="16" t="s">
         <v>3</v>
@@ -937,7 +931,7 @@
     </row>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -961,46 +955,46 @@
     </row>
     <row r="3" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="T3" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1012,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="26">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
@@ -17381,7 +17375,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2m61+K+49n+dv7H4rxmcQcIap5ZII5gYhyfbG9MKvFUCEbRZNVWuE2nrfm8DgdN3H3lT3p8ZvdJNLeRKVzdMYA==" saltValue="V/2c/leVk5HTb/5e/SJx0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HYo70M2/CM+n4sKUM5uTuDbUn4fwwa2lWQak/3WW1ztou3cAIa6ErwzYwpSqt+1zHiP0o35+4hZicT/sp3pzUg==" saltValue="Jup8HZ5H97k6XN82FDthtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:T2"/>
   </mergeCells>
@@ -17489,10 +17483,10 @@
         <v>4</v>
       </c>
       <c r="M7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -17518,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="9">
         <v>1</v>
